--- a/Debugg Piotr/MCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910 - invrot/Roxie_vs_MM_MiddlePoint MCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910 - invrot.xlsx
+++ b/Debugg Piotr/MCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910 - invrot/Roxie_vs_MM_MiddlePoint MCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910 - invrot.xlsx
@@ -500,7 +500,7 @@
         <v>-0.000342</v>
       </c>
       <c r="C3">
-        <v>0.5174800000000001</v>
+        <v>0.517479</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -511,7 +511,7 @@
         <v>-13.010627</v>
       </c>
       <c r="C4">
-        <v>-7.953117</v>
+        <v>-7.953124</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -522,7 +522,7 @@
         <v>-0.000777</v>
       </c>
       <c r="C5">
-        <v>0.562732</v>
+        <v>0.562728</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -533,7 +533,7 @@
         <v>0.296514</v>
       </c>
       <c r="C6">
-        <v>-6.387797</v>
+        <v>-6.3878</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -555,7 +555,7 @@
         <v>1.776196</v>
       </c>
       <c r="C8">
-        <v>0.597136</v>
+        <v>0.597135</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -588,7 +588,7 @@
         <v>1E-06</v>
       </c>
       <c r="C11">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -621,7 +621,7 @@
         <v>-1.695289</v>
       </c>
       <c r="C14">
-        <v>-1.791651</v>
+        <v>-1.79165</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -632,7 +632,7 @@
         <v>-1E-06</v>
       </c>
       <c r="C15">
-        <v>0.011204</v>
+        <v>0.011205</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -643,7 +643,7 @@
         <v>0.323907</v>
       </c>
       <c r="C16">
-        <v>0.249269</v>
+        <v>0.24927</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -665,7 +665,7 @@
         <v>0.01889</v>
       </c>
       <c r="C18">
-        <v>1.90357</v>
+        <v>1.903571</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -676,7 +676,7 @@
         <v>0.043943</v>
       </c>
       <c r="C19">
-        <v>-0.51488</v>
+        <v>-0.514879</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -687,7 +687,7 @@
         <v>-0.00107</v>
       </c>
       <c r="C20">
-        <v>1.971928</v>
+        <v>1.971929</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -698,7 +698,7 @@
         <v>-0.002821</v>
       </c>
       <c r="C21">
-        <v>-0.150512</v>
+        <v>-0.150511</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -786,7 +786,7 @@
         <v>1E-06</v>
       </c>
       <c r="C29">
-        <v>-0.035664</v>
+        <v>-0.035665</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -797,7 +797,7 @@
         <v>-9E-06</v>
       </c>
       <c r="C30">
-        <v>-0.001017</v>
+        <v>-0.001018</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -808,7 +808,7 @@
         <v>-0</v>
       </c>
       <c r="C31">
-        <v>0.022884</v>
+        <v>0.022883</v>
       </c>
     </row>
   </sheetData>
